--- a/examples/result.xlsx
+++ b/examples/result.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Details Design" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Project Details" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t/>
   </si>
@@ -41,6 +42,12 @@
   </si>
   <si>
     <t>福建行中书省福宁州傲龙山庄</t>
+  </si>
+  <si>
+    <t>xtpl</t>
+  </si>
+  <si>
+    <t>xuanhoa88</t>
   </si>
 </sst>
 </file>
@@ -162,9 +169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -206,9 +213,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -250,57 +257,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -338,13 +301,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>849240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:colOff>848880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5">
+        <xdr:cNvPr id="4" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -698,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="A1" sqref="A1"/>
@@ -995,140 +958,45 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" ht="12.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" ht="12.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" ht="13.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" ht="12.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" ht="12.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" ht="12.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" ht="12.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" ht="12.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" ht="12.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" ht="12.8" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" ht="12.8" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" ht="12.8" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:C42"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C33"/>
     <mergeCell ref="H1:I9"/>
     <mergeCell ref="H10:I18"/>
     <mergeCell ref="H19:I27"/>
-    <mergeCell ref="H28:I36"/>
   </mergeCells>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
@@ -1138,4 +1006,34 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.53515625" customHeight="1"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>